--- a/excel/input/student_data.xlsx
+++ b/excel/input/student_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suzukikenichi/pro-main/lab-lottery/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suzukikenichi/pro-main/lab-lottery/excel/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3BEFBD1A-AA4B-7547-9599-0E2BC5F19BB1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{56258CBE-8AF1-034C-ABB6-DC5900DFD30C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5460" yWindow="460" windowWidth="19300" windowHeight="16320" xr2:uid="{1603E523-0070-7149-BC83-C8BDD291C21E}"/>
   </bookViews>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33175479-AB33-6244-B901-4CE8A645B5BA}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1664,16 +1664,16 @@
         <v>114</v>
       </c>
       <c r="D33" s="1">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="G33" s="1">
-        <v>99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2400,16 +2400,16 @@
         <v>114</v>
       </c>
       <c r="D65" s="1">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="G65" s="1">
-        <v>99</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2722,16 +2722,16 @@
         <v>114</v>
       </c>
       <c r="D79" s="1">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="E79" s="1">
         <v>0</v>
       </c>
       <c r="F79" s="1">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="G79" s="1">
-        <v>99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:7">

--- a/excel/input/student_data.xlsx
+++ b/excel/input/student_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suzukikenichi/pro-main/lab-lottery/excel/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{56258CBE-8AF1-034C-ABB6-DC5900DFD30C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0C913B16-9788-6F41-A886-D0946253EDFA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5460" yWindow="460" windowWidth="19300" windowHeight="16320" xr2:uid="{1603E523-0070-7149-BC83-C8BDD291C21E}"/>
   </bookViews>
@@ -324,20 +324,6 @@
     <t>萩原郁哉</t>
   </si>
   <si>
-    <t>徳良</t>
-    <rPh sb="0" eb="1">
-      <t>トクタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>樋川</t>
-    <rPh sb="0" eb="2">
-      <t>ヒカワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>天然物合成化学</t>
     <rPh sb="0" eb="2">
       <t>テンネンブツ</t>
@@ -520,6 +506,20 @@
     <t>student_num</t>
     <rPh sb="0" eb="2">
       <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徳良真</t>
+    <rPh sb="0" eb="1">
+      <t>トクタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>樋川直人</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33175479-AB33-6244-B901-4CE8A645B5BA}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -919,25 +919,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1">
         <v>15</v>
@@ -994,7 +994,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1017,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1">
         <v>12</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -1063,7 +1063,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -1086,7 +1086,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1">
         <v>17</v>
@@ -1109,7 +1109,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" s="1">
         <v>12</v>
@@ -1132,7 +1132,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10" s="1">
         <v>12</v>
@@ -1155,7 +1155,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
@@ -1178,7 +1178,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1">
         <v>15</v>
@@ -1201,7 +1201,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1">
         <v>20</v>
@@ -1224,7 +1224,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D14" s="1">
         <v>9</v>
@@ -1247,7 +1247,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
@@ -1270,7 +1270,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D16" s="1">
         <v>9</v>
@@ -1293,7 +1293,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D17" s="1">
         <v>11</v>
@@ -1316,7 +1316,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1">
         <v>15</v>
@@ -1339,7 +1339,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -1362,7 +1362,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D20" s="1">
         <v>13</v>
@@ -1385,7 +1385,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D21" s="1">
         <v>11</v>
@@ -1408,7 +1408,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D22" s="1">
         <v>8</v>
@@ -1431,7 +1431,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D23" s="1">
         <v>11</v>
@@ -1454,7 +1454,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -1477,7 +1477,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -1500,7 +1500,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D26" s="1">
         <v>11</v>
@@ -1523,7 +1523,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -1546,7 +1546,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
@@ -1569,7 +1569,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D29" s="1">
         <v>14</v>
@@ -1592,7 +1592,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -1615,7 +1615,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="1">
         <v>8</v>
@@ -1638,7 +1638,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="1">
         <v>4</v>
@@ -1661,7 +1661,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D33" s="1">
         <v>9</v>
@@ -1684,7 +1684,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D34" s="1">
         <v>8</v>
@@ -1707,7 +1707,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="1">
         <v>21</v>
@@ -1730,7 +1730,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D36" s="1">
         <v>4</v>
@@ -1753,7 +1753,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D37" s="1">
         <v>21</v>
@@ -1776,7 +1776,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D38" s="1">
         <v>15</v>
@@ -1799,7 +1799,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D40" s="1">
         <v>9</v>
@@ -1845,7 +1845,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -1868,7 +1868,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D42" s="1">
         <v>10</v>
@@ -1891,7 +1891,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D43" s="1">
         <v>4</v>
@@ -1914,7 +1914,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D44" s="1">
         <v>5</v>
@@ -1937,7 +1937,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D45" s="1">
         <v>16</v>
@@ -1960,7 +1960,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D46" s="1">
         <v>21</v>
@@ -1983,7 +1983,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D47" s="1">
         <v>16</v>
@@ -2006,7 +2006,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D48" s="1">
         <v>14</v>
@@ -2029,7 +2029,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D50" s="1">
         <v>16</v>
@@ -2075,7 +2075,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -2098,7 +2098,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D53" s="1">
         <v>9</v>
@@ -2144,7 +2144,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D54" s="1">
         <v>17</v>
@@ -2167,7 +2167,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D55" s="1">
         <v>16</v>
@@ -2190,7 +2190,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D56" s="1">
         <v>15</v>
@@ -2213,7 +2213,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D57" s="1">
         <v>10</v>
@@ -2236,7 +2236,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D58" s="1">
         <v>17</v>
@@ -2259,7 +2259,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -2282,7 +2282,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D60" s="1">
         <v>10</v>
@@ -2305,7 +2305,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D61" s="1">
         <v>21</v>
@@ -2328,7 +2328,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D62" s="1">
         <v>4</v>
@@ -2351,7 +2351,7 @@
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -2374,7 +2374,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D64" s="1">
         <v>12</v>
@@ -2397,7 +2397,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D65" s="1">
         <v>8</v>
@@ -2420,7 +2420,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D66" s="1">
         <v>17</v>
@@ -2443,7 +2443,7 @@
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D67" s="1">
         <v>17</v>
@@ -2466,7 +2466,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D68" s="1">
         <v>17</v>
@@ -2489,7 +2489,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D69" s="1">
         <v>9</v>
@@ -2512,7 +2512,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D70" s="1">
         <v>9</v>
@@ -2535,7 +2535,7 @@
         <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D71" s="1">
         <v>15</v>
@@ -2558,7 +2558,7 @@
         <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D72" s="1">
         <v>10</v>
@@ -2581,7 +2581,7 @@
         <v>71</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D73" s="1">
         <v>3</v>
@@ -2604,7 +2604,7 @@
         <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D74" s="1">
         <v>9</v>
@@ -2627,7 +2627,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D75" s="1">
         <v>16</v>
@@ -2650,7 +2650,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1">
         <v>5</v>
@@ -2673,7 +2673,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1">
         <v>5</v>
@@ -2696,7 +2696,7 @@
         <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D78" s="1">
         <v>11</v>
@@ -2716,10 +2716,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D79" s="1">
         <v>9</v>
@@ -2742,7 +2742,7 @@
         <v>77</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D80" s="1">
         <v>9</v>
@@ -2765,7 +2765,7 @@
         <v>78</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D81" s="1">
         <v>4</v>
@@ -2788,7 +2788,7 @@
         <v>79</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D82" s="1">
         <v>17</v>
@@ -2811,7 +2811,7 @@
         <v>80</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D83" s="1">
         <v>10</v>
@@ -2834,7 +2834,7 @@
         <v>81</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D84" s="1">
         <v>4</v>
@@ -2857,7 +2857,7 @@
         <v>82</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D85" s="1">
         <v>16</v>
@@ -2880,7 +2880,7 @@
         <v>83</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D86" s="1">
         <v>14</v>
@@ -2903,7 +2903,7 @@
         <v>84</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D87" s="1">
         <v>3</v>
@@ -2926,7 +2926,7 @@
         <v>85</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D88" s="1">
         <v>16</v>
@@ -2949,7 +2949,7 @@
         <v>86</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D89" s="1">
         <v>20</v>
@@ -2969,10 +2969,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D90" s="1">
         <v>3</v>
@@ -2992,10 +2992,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>

--- a/excel/input/student_data.xlsx
+++ b/excel/input/student_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suzukikenichi/pro-main/lab-lottery/excel/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0C913B16-9788-6F41-A886-D0946253EDFA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B40DFCD4-870E-1446-88FC-224BAC6C9559}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="460" windowWidth="19300" windowHeight="16320" xr2:uid="{1603E523-0070-7149-BC83-C8BDD291C21E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1603E523-0070-7149-BC83-C8BDD291C21E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -595,7 +595,78 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -907,12 +978,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33175479-AB33-6244-B901-4CE8A645B5BA}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
@@ -2397,19 +2469,19 @@
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D65" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G65" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3012,6 +3084,22 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E2:E91">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F91">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/input/student_data.xlsx
+++ b/excel/input/student_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suzukikenichi/pro-main/lab-lottery/excel/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B40DFCD4-870E-1446-88FC-224BAC6C9559}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{74CD1E4B-CEC4-EC47-945F-60A0755172E9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1603E523-0070-7149-BC83-C8BDD291C21E}"/>
   </bookViews>
@@ -595,27 +595,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -623,16 +603,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -979,7 +949,7 @@
   <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3085,18 +3055,18 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E2:E91">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F91">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>

--- a/excel/input/student_data.xlsx
+++ b/excel/input/student_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suzukikenichi/pro-main/lab-lottery/excel/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{74CD1E4B-CEC4-EC47-945F-60A0755172E9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FF22FE46-9370-A64E-98D3-101BD5971E86}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1603E523-0070-7149-BC83-C8BDD291C21E}"/>
   </bookViews>
@@ -25,18 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="116">
-  <si>
-    <t>浅井響</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>東一織</t>
-    <rPh sb="0" eb="1">
-      <t>イリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="115">
   <si>
     <t>渥美渉</t>
   </si>
@@ -44,10 +33,6 @@
     <t>有田実季</t>
   </si>
   <si>
-    <t>新井陵友</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>飯田虎之介</t>
   </si>
   <si>
@@ -78,20 +63,9 @@
     <t>内田啓人</t>
   </si>
   <si>
-    <t>榎いずみ</t>
-    <rPh sb="0" eb="1">
-      <t>イズm</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>遠藤建</t>
   </si>
   <si>
-    <t>及川和輝</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>大西浩文</t>
   </si>
   <si>
@@ -170,10 +144,6 @@
     <t>須藤成俊</t>
   </si>
   <si>
-    <t>セガール詩文</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>妹尾賢治</t>
   </si>
   <si>
@@ -204,33 +174,6 @@
     <t>田村隆太郎</t>
   </si>
   <si>
-    <r>
-      <t>丁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>婧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>文</t>
-    </r>
-  </si>
-  <si>
     <t>富澤郁美</t>
   </si>
   <si>
@@ -322,139 +265,6 @@
   </si>
   <si>
     <t>萩原郁哉</t>
-  </si>
-  <si>
-    <t>天然物合成化学</t>
-    <rPh sb="0" eb="2">
-      <t>テンネンブツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>有機合成化学</t>
-    <rPh sb="0" eb="2">
-      <t>ユウキゴウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>天然物化学</t>
-    <rPh sb="0" eb="2">
-      <t>テンネンブツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>基礎有機化学</t>
-    <rPh sb="0" eb="2">
-      <t>キソユウキカガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>生体分析化学</t>
-    <rPh sb="0" eb="2">
-      <t>セイタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>衛生化学</t>
-    <rPh sb="0" eb="2">
-      <t>エイセイカガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>生理化学</t>
-    <rPh sb="0" eb="1">
-      <t>セイリカガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分子生物学</t>
-    <rPh sb="0" eb="2">
-      <t>ブンシセイブツガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>遺伝学</t>
-    <rPh sb="0" eb="2">
-      <t>イデンガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>細胞情報学</t>
-    <rPh sb="0" eb="2">
-      <t>サイボウジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>蛋白質代謝学</t>
-    <rPh sb="0" eb="2">
-      <t>タンパクシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>薬品代謝学</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクヒンタイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>免疫微生物学</t>
-    <rPh sb="0" eb="2">
-      <t>メンエキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分子薬物動態学</t>
-    <rPh sb="0" eb="1">
-      <t>ブンシヤクブツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能病態学</t>
-    <rPh sb="0" eb="2">
-      <t>キノウビョウタイガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>育薬学</t>
-    <rPh sb="0" eb="1">
-      <t>ソダテル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>薬品作用学</t>
-    <rPh sb="0" eb="1">
-      <t>ヤクヒン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>薬剤部</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクザイブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>免疫微生物学</t>
-    <rPh sb="0" eb="1">
-      <t>メンエキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>name</t>
@@ -499,10 +309,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>なし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>student_num</t>
     <rPh sb="0" eb="2">
       <t>バンゴウ</t>
@@ -510,25 +316,95 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>浅井響</t>
+  </si>
+  <si>
+    <t>天然物合成化学</t>
+  </si>
+  <si>
+    <t>東一織</t>
+  </si>
+  <si>
+    <t>分子薬物動態学</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>新井陵友</t>
+  </si>
+  <si>
+    <t>基礎有機化学</t>
+  </si>
+  <si>
+    <t>細胞情報学</t>
+  </si>
+  <si>
+    <t>分子生物学</t>
+  </si>
+  <si>
+    <t>育薬学</t>
+  </si>
+  <si>
+    <t>蛋白質代謝学</t>
+  </si>
+  <si>
+    <t>榎いずみ</t>
+  </si>
+  <si>
+    <t>遺伝学</t>
+  </si>
+  <si>
+    <t>及川和輝</t>
+  </si>
+  <si>
+    <t>有機合成化学</t>
+  </si>
+  <si>
+    <t>衛生化学</t>
+  </si>
+  <si>
+    <t>機能病態学</t>
+  </si>
+  <si>
+    <t>薬品代謝化学</t>
+  </si>
+  <si>
+    <t>医学部附属病院薬剤部</t>
+  </si>
+  <si>
+    <t>生体分析化学</t>
+  </si>
+  <si>
+    <t>薬品作用学</t>
+  </si>
+  <si>
+    <t>セガール詩文</t>
+  </si>
+  <si>
+    <t>免疫・微生物学</t>
+  </si>
+  <si>
+    <t>生理化学</t>
+  </si>
+  <si>
+    <t>丁婧文</t>
+  </si>
+  <si>
     <t>徳良真</t>
-    <rPh sb="0" eb="1">
-      <t>トクタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>樋川直人</t>
-    <rPh sb="0" eb="2">
-      <t>ヒカワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天然物化学</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -549,14 +425,6 @@
       <color theme="1"/>
       <name val="MS"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -948,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33175479-AB33-6244-B901-4CE8A645B5BA}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -961,25 +829,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -987,10 +855,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -1010,10 +878,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1">
         <v>15</v>
@@ -1033,10 +901,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1056,10 +924,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1">
         <v>12</v>
@@ -1079,10 +947,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -1102,10 +970,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -1125,10 +993,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D8" s="1">
         <v>17</v>
@@ -1148,10 +1016,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D9" s="1">
         <v>12</v>
@@ -1171,10 +1039,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1">
         <v>12</v>
@@ -1194,10 +1062,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
@@ -1217,10 +1085,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D12" s="1">
         <v>15</v>
@@ -1240,10 +1108,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1">
         <v>20</v>
@@ -1263,13 +1131,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D14" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1286,10 +1154,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
@@ -1309,10 +1177,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D16" s="1">
         <v>9</v>
@@ -1332,10 +1200,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D17" s="1">
         <v>11</v>
@@ -1355,10 +1223,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D18" s="1">
         <v>15</v>
@@ -1378,10 +1246,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -1401,13 +1269,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D20" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1424,10 +1292,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D21" s="1">
         <v>11</v>
@@ -1447,13 +1315,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D22" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -1470,10 +1338,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D23" s="1">
         <v>11</v>
@@ -1493,10 +1361,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -1516,10 +1384,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -1539,13 +1407,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D26" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -1562,10 +1430,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -1585,10 +1453,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
@@ -1608,13 +1476,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D29" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -1631,10 +1499,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -1654,13 +1522,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D31" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
@@ -1677,10 +1545,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D32" s="1">
         <v>4</v>
@@ -1700,13 +1568,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D33" s="1">
-        <v>9</v>
+        <v>999</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -1723,13 +1591,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D34" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -1746,10 +1614,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="1">
         <v>21</v>
@@ -1769,10 +1637,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D36" s="1">
         <v>4</v>
@@ -1792,10 +1660,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D37" s="1">
         <v>21</v>
@@ -1815,13 +1683,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D38" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E38" s="1">
         <v>0</v>
@@ -1838,10 +1706,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -1861,13 +1729,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D40" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
@@ -1884,10 +1752,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="D41" s="1">
         <v>2</v>
@@ -1907,10 +1775,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D42" s="1">
         <v>10</v>
@@ -1930,10 +1798,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D43" s="1">
         <v>4</v>
@@ -1953,10 +1821,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D44" s="1">
         <v>5</v>
@@ -1976,10 +1844,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D45" s="1">
         <v>16</v>
@@ -1999,10 +1867,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D46" s="1">
         <v>21</v>
@@ -2022,10 +1890,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D47" s="1">
         <v>16</v>
@@ -2045,10 +1913,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D48" s="1">
         <v>14</v>
@@ -2068,10 +1936,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -2091,10 +1959,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D50" s="1">
         <v>16</v>
@@ -2114,10 +1982,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -2137,10 +2005,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -2160,10 +2028,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D53" s="1">
         <v>9</v>
@@ -2183,10 +2051,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D54" s="1">
         <v>17</v>
@@ -2206,13 +2074,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D55" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -2229,10 +2097,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D56" s="1">
         <v>15</v>
@@ -2252,10 +2120,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D57" s="1">
         <v>10</v>
@@ -2275,10 +2143,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D58" s="1">
         <v>17</v>
@@ -2298,10 +2166,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
@@ -2321,13 +2189,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D60" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -2344,10 +2212,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D61" s="1">
         <v>21</v>
@@ -2367,10 +2235,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D62" s="1">
         <v>4</v>
@@ -2390,10 +2258,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -2413,10 +2281,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D64" s="1">
         <v>12</v>
@@ -2436,19 +2304,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1">
-        <v>16</v>
+        <v>999</v>
       </c>
       <c r="E65" s="1">
         <v>0</v>
       </c>
       <c r="F65" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -2459,10 +2327,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D66" s="1">
         <v>17</v>
@@ -2482,13 +2350,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D67" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E67" s="1">
         <v>0</v>
@@ -2505,10 +2373,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D68" s="1">
         <v>17</v>
@@ -2528,10 +2396,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D69" s="1">
         <v>9</v>
@@ -2551,10 +2419,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D70" s="1">
         <v>9</v>
@@ -2574,10 +2442,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D71" s="1">
         <v>15</v>
@@ -2597,10 +2465,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D72" s="1">
         <v>10</v>
@@ -2620,10 +2488,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D73" s="1">
         <v>3</v>
@@ -2643,10 +2511,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D74" s="1">
         <v>9</v>
@@ -2666,10 +2534,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D75" s="1">
         <v>16</v>
@@ -2689,13 +2557,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D76" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E76" s="1">
         <v>0</v>
@@ -2712,10 +2580,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D77" s="1">
         <v>5</v>
@@ -2735,10 +2603,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D78" s="1">
         <v>11</v>
@@ -2758,13 +2626,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1">
-        <v>9</v>
+        <v>999</v>
       </c>
       <c r="E79" s="1">
         <v>0</v>
@@ -2781,13 +2649,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D80" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -2804,10 +2672,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D81" s="1">
         <v>4</v>
@@ -2827,13 +2695,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D82" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -2850,13 +2718,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D83" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
@@ -2873,10 +2741,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D84" s="1">
         <v>4</v>
@@ -2896,13 +2764,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D85" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E85" s="1">
         <v>0</v>
@@ -2919,10 +2787,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D86" s="1">
         <v>14</v>
@@ -2942,10 +2810,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D87" s="1">
         <v>3</v>
@@ -2965,10 +2833,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D88" s="1">
         <v>16</v>
@@ -2988,10 +2856,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D89" s="1">
         <v>20</v>
@@ -3011,13 +2879,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D90" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
@@ -3034,13 +2902,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D91" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -3071,5 +2939,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/excel/input/student_data.xlsx
+++ b/excel/input/student_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suzukikenichi/pro-main/lab-lottery/excel/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FF22FE46-9370-A64E-98D3-101BD5971E86}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8557AF83-E1CD-524C-B362-E7711C764006}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1603E523-0070-7149-BC83-C8BDD291C21E}"/>
   </bookViews>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33175479-AB33-6244-B901-4CE8A645B5BA}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
